--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFC7EF-0B6A-4884-B61F-6F12136E93C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C9FAE-B80D-45BC-8415-809FAE0D1312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackWolfRing" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3556,6 +3556,886 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>405000</v>
+      </c>
+      <c r="C71">
+        <v>46</v>
+      </c>
+      <c r="D71">
+        <v>12.9</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>410000</v>
+      </c>
+      <c r="C72">
+        <v>46</v>
+      </c>
+      <c r="D72">
+        <v>13.1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>415000</v>
+      </c>
+      <c r="C73">
+        <v>46</v>
+      </c>
+      <c r="D73">
+        <v>13.3</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>420000</v>
+      </c>
+      <c r="C74">
+        <v>46</v>
+      </c>
+      <c r="D74">
+        <v>13.5</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>425000</v>
+      </c>
+      <c r="C75">
+        <v>46</v>
+      </c>
+      <c r="D75">
+        <v>13.7</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>430000</v>
+      </c>
+      <c r="C76">
+        <v>46</v>
+      </c>
+      <c r="D76">
+        <v>13.9</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>435000</v>
+      </c>
+      <c r="C77">
+        <v>46</v>
+      </c>
+      <c r="D77">
+        <v>14.1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>440000</v>
+      </c>
+      <c r="C78">
+        <v>46</v>
+      </c>
+      <c r="D78">
+        <v>14.3</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>445000</v>
+      </c>
+      <c r="C79">
+        <v>46</v>
+      </c>
+      <c r="D79">
+        <v>14.5</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>450000</v>
+      </c>
+      <c r="C80">
+        <v>46</v>
+      </c>
+      <c r="D80">
+        <v>14.7</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>455000</v>
+      </c>
+      <c r="C81">
+        <v>46</v>
+      </c>
+      <c r="D81">
+        <v>14.9</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>460000</v>
+      </c>
+      <c r="C82">
+        <v>46</v>
+      </c>
+      <c r="D82">
+        <v>15.1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>465000</v>
+      </c>
+      <c r="C83">
+        <v>46</v>
+      </c>
+      <c r="D83">
+        <v>15.3</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>470000</v>
+      </c>
+      <c r="C84">
+        <v>46</v>
+      </c>
+      <c r="D84">
+        <v>15.5</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>475000</v>
+      </c>
+      <c r="C85">
+        <v>46</v>
+      </c>
+      <c r="D85">
+        <v>15.7</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>480000</v>
+      </c>
+      <c r="C86">
+        <v>46</v>
+      </c>
+      <c r="D86">
+        <v>15.9</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>485000</v>
+      </c>
+      <c r="C87">
+        <v>46</v>
+      </c>
+      <c r="D87">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>490000</v>
+      </c>
+      <c r="C88">
+        <v>46</v>
+      </c>
+      <c r="D88">
+        <v>16.3</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>495000</v>
+      </c>
+      <c r="C89">
+        <v>46</v>
+      </c>
+      <c r="D89">
+        <v>16.5</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>500000</v>
+      </c>
+      <c r="C90">
+        <v>46</v>
+      </c>
+      <c r="D90">
+        <v>16.7</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C9FAE-B80D-45BC-8415-809FAE0D1312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48AAB5-B938-4A59-8505-8A4AEBA9EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackWolfRing" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4436,6 +4436,446 @@
         <v>0</v>
       </c>
     </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>505000</v>
+      </c>
+      <c r="C91">
+        <v>46</v>
+      </c>
+      <c r="D91">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>510000</v>
+      </c>
+      <c r="C92">
+        <v>46</v>
+      </c>
+      <c r="D92">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>515000</v>
+      </c>
+      <c r="C93">
+        <v>46</v>
+      </c>
+      <c r="D93">
+        <v>17.3</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>520000</v>
+      </c>
+      <c r="C94">
+        <v>46</v>
+      </c>
+      <c r="D94">
+        <v>17.5</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>525000</v>
+      </c>
+      <c r="C95">
+        <v>46</v>
+      </c>
+      <c r="D95">
+        <v>17.7</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>530000</v>
+      </c>
+      <c r="C96">
+        <v>46</v>
+      </c>
+      <c r="D96">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>535000</v>
+      </c>
+      <c r="C97">
+        <v>46</v>
+      </c>
+      <c r="D97">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>540000</v>
+      </c>
+      <c r="C98">
+        <v>46</v>
+      </c>
+      <c r="D98">
+        <v>18.3</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>545000</v>
+      </c>
+      <c r="C99">
+        <v>46</v>
+      </c>
+      <c r="D99">
+        <v>18.5</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>550000</v>
+      </c>
+      <c r="C100">
+        <v>46</v>
+      </c>
+      <c r="D100">
+        <v>18.7</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48AAB5-B938-4A59-8505-8A4AEBA9EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F15967A-C543-4733-AC57-E6AE9A84BC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackWolfRing" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4876,6 +4876,446 @@
         <v>0</v>
       </c>
     </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>555000</v>
+      </c>
+      <c r="C101">
+        <v>46</v>
+      </c>
+      <c r="D101">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>560000</v>
+      </c>
+      <c r="C102">
+        <v>46</v>
+      </c>
+      <c r="D102">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>565000</v>
+      </c>
+      <c r="C103">
+        <v>46</v>
+      </c>
+      <c r="D103">
+        <v>19.3</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>570000</v>
+      </c>
+      <c r="C104">
+        <v>46</v>
+      </c>
+      <c r="D104">
+        <v>19.5</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>575000</v>
+      </c>
+      <c r="C105">
+        <v>46</v>
+      </c>
+      <c r="D105">
+        <v>19.7</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>580000</v>
+      </c>
+      <c r="C106">
+        <v>46</v>
+      </c>
+      <c r="D106">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>585000</v>
+      </c>
+      <c r="C107">
+        <v>46</v>
+      </c>
+      <c r="D107">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>590000</v>
+      </c>
+      <c r="C108">
+        <v>46</v>
+      </c>
+      <c r="D108">
+        <v>20.3</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>595000</v>
+      </c>
+      <c r="C109">
+        <v>46</v>
+      </c>
+      <c r="D109">
+        <v>20.5</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>600000</v>
+      </c>
+      <c r="C110">
+        <v>46</v>
+      </c>
+      <c r="D110">
+        <v>20.7</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F15967A-C543-4733-AC57-E6AE9A84BC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0BF82E-D47B-4300-9294-1AE74F0D6E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5316,6 +5316,886 @@
         <v>0</v>
       </c>
     </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>605000</v>
+      </c>
+      <c r="C111">
+        <v>46</v>
+      </c>
+      <c r="D111">
+        <v>20.9</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>610000</v>
+      </c>
+      <c r="C112">
+        <v>46</v>
+      </c>
+      <c r="D112">
+        <v>21.1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>615000</v>
+      </c>
+      <c r="C113">
+        <v>46</v>
+      </c>
+      <c r="D113">
+        <v>21.3</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>620000</v>
+      </c>
+      <c r="C114">
+        <v>46</v>
+      </c>
+      <c r="D114">
+        <v>21.5</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>625000</v>
+      </c>
+      <c r="C115">
+        <v>46</v>
+      </c>
+      <c r="D115">
+        <v>21.7</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>630000</v>
+      </c>
+      <c r="C116">
+        <v>46</v>
+      </c>
+      <c r="D116">
+        <v>21.9</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>635000</v>
+      </c>
+      <c r="C117">
+        <v>46</v>
+      </c>
+      <c r="D117">
+        <v>22.1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>640000</v>
+      </c>
+      <c r="C118">
+        <v>46</v>
+      </c>
+      <c r="D118">
+        <v>22.3</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>645000</v>
+      </c>
+      <c r="C119">
+        <v>46</v>
+      </c>
+      <c r="D119">
+        <v>22.5</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>650000</v>
+      </c>
+      <c r="C120">
+        <v>46</v>
+      </c>
+      <c r="D120">
+        <v>22.7</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>655000</v>
+      </c>
+      <c r="C121">
+        <v>46</v>
+      </c>
+      <c r="D121">
+        <v>22.9</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>660000</v>
+      </c>
+      <c r="C122">
+        <v>46</v>
+      </c>
+      <c r="D122">
+        <v>23.1</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>665000</v>
+      </c>
+      <c r="C123">
+        <v>46</v>
+      </c>
+      <c r="D123">
+        <v>23.3</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>670000</v>
+      </c>
+      <c r="C124">
+        <v>46</v>
+      </c>
+      <c r="D124">
+        <v>23.5</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>675000</v>
+      </c>
+      <c r="C125">
+        <v>46</v>
+      </c>
+      <c r="D125">
+        <v>23.7</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>680000</v>
+      </c>
+      <c r="C126">
+        <v>46</v>
+      </c>
+      <c r="D126">
+        <v>23.9</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>685000</v>
+      </c>
+      <c r="C127">
+        <v>46</v>
+      </c>
+      <c r="D127">
+        <v>24.1</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>690000</v>
+      </c>
+      <c r="C128">
+        <v>46</v>
+      </c>
+      <c r="D128">
+        <v>24.3</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>695000</v>
+      </c>
+      <c r="C129">
+        <v>46</v>
+      </c>
+      <c r="D129">
+        <v>24.5</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>700000</v>
+      </c>
+      <c r="C130">
+        <v>46</v>
+      </c>
+      <c r="D130">
+        <v>24.7</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0BF82E-D47B-4300-9294-1AE74F0D6E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD561B-F354-4BA0-9F87-81B666A8A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28815" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackWolfRing" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6196,6 +6196,886 @@
         <v>0</v>
       </c>
     </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>705000</v>
+      </c>
+      <c r="C131">
+        <v>46</v>
+      </c>
+      <c r="D131">
+        <v>24.9</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>710000</v>
+      </c>
+      <c r="C132">
+        <v>46</v>
+      </c>
+      <c r="D132">
+        <v>25.1</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>715000</v>
+      </c>
+      <c r="C133">
+        <v>46</v>
+      </c>
+      <c r="D133">
+        <v>25.3</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>720000</v>
+      </c>
+      <c r="C134">
+        <v>46</v>
+      </c>
+      <c r="D134">
+        <v>25.5</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>725000</v>
+      </c>
+      <c r="C135">
+        <v>46</v>
+      </c>
+      <c r="D135">
+        <v>25.7</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>730000</v>
+      </c>
+      <c r="C136">
+        <v>46</v>
+      </c>
+      <c r="D136">
+        <v>25.9</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>735000</v>
+      </c>
+      <c r="C137">
+        <v>46</v>
+      </c>
+      <c r="D137">
+        <v>26.1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>740000</v>
+      </c>
+      <c r="C138">
+        <v>46</v>
+      </c>
+      <c r="D138">
+        <v>26.3</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>745000</v>
+      </c>
+      <c r="C139">
+        <v>46</v>
+      </c>
+      <c r="D139">
+        <v>26.5</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>750000</v>
+      </c>
+      <c r="C140">
+        <v>46</v>
+      </c>
+      <c r="D140">
+        <v>26.7</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>755000</v>
+      </c>
+      <c r="C141">
+        <v>46</v>
+      </c>
+      <c r="D141">
+        <v>26.9</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>760000</v>
+      </c>
+      <c r="C142">
+        <v>46</v>
+      </c>
+      <c r="D142">
+        <v>27.1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>765000</v>
+      </c>
+      <c r="C143">
+        <v>46</v>
+      </c>
+      <c r="D143">
+        <v>27.3</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>770000</v>
+      </c>
+      <c r="C144">
+        <v>46</v>
+      </c>
+      <c r="D144">
+        <v>27.5</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>775000</v>
+      </c>
+      <c r="C145">
+        <v>46</v>
+      </c>
+      <c r="D145">
+        <v>27.7</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>780000</v>
+      </c>
+      <c r="C146">
+        <v>46</v>
+      </c>
+      <c r="D146">
+        <v>27.9</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>785000</v>
+      </c>
+      <c r="C147">
+        <v>46</v>
+      </c>
+      <c r="D147">
+        <v>28.1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>790000</v>
+      </c>
+      <c r="C148">
+        <v>46</v>
+      </c>
+      <c r="D148">
+        <v>28.3</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>795000</v>
+      </c>
+      <c r="C149">
+        <v>46</v>
+      </c>
+      <c r="D149">
+        <v>28.5</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>800000</v>
+      </c>
+      <c r="C150">
+        <v>46</v>
+      </c>
+      <c r="D150">
+        <v>28.7</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD561B-F354-4BA0-9F87-81B666A8A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC754D0-32EA-4552-902D-266A06A3258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28815" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BlackWolfRing" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7076,6 +7076,1766 @@
         <v>0</v>
       </c>
     </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>805000</v>
+      </c>
+      <c r="C151">
+        <v>46</v>
+      </c>
+      <c r="D151">
+        <v>28.9</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>810000</v>
+      </c>
+      <c r="C152">
+        <v>46</v>
+      </c>
+      <c r="D152">
+        <v>29.1</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>815000</v>
+      </c>
+      <c r="C153">
+        <v>46</v>
+      </c>
+      <c r="D153">
+        <v>29.3</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>820000</v>
+      </c>
+      <c r="C154">
+        <v>46</v>
+      </c>
+      <c r="D154">
+        <v>29.5</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>825000</v>
+      </c>
+      <c r="C155">
+        <v>46</v>
+      </c>
+      <c r="D155">
+        <v>29.7</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>830000</v>
+      </c>
+      <c r="C156">
+        <v>46</v>
+      </c>
+      <c r="D156">
+        <v>29.9</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>835000</v>
+      </c>
+      <c r="C157">
+        <v>46</v>
+      </c>
+      <c r="D157">
+        <v>30.1</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>840000</v>
+      </c>
+      <c r="C158">
+        <v>46</v>
+      </c>
+      <c r="D158">
+        <v>30.3</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>845000</v>
+      </c>
+      <c r="C159">
+        <v>46</v>
+      </c>
+      <c r="D159">
+        <v>30.5</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>850000</v>
+      </c>
+      <c r="C160">
+        <v>46</v>
+      </c>
+      <c r="D160">
+        <v>30.7</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>855000</v>
+      </c>
+      <c r="C161">
+        <v>46</v>
+      </c>
+      <c r="D161">
+        <v>30.9</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>860000</v>
+      </c>
+      <c r="C162">
+        <v>46</v>
+      </c>
+      <c r="D162">
+        <v>31.1</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>865000</v>
+      </c>
+      <c r="C163">
+        <v>46</v>
+      </c>
+      <c r="D163">
+        <v>31.3</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>870000</v>
+      </c>
+      <c r="C164">
+        <v>46</v>
+      </c>
+      <c r="D164">
+        <v>31.5</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>875000</v>
+      </c>
+      <c r="C165">
+        <v>46</v>
+      </c>
+      <c r="D165">
+        <v>31.7</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>880000</v>
+      </c>
+      <c r="C166">
+        <v>46</v>
+      </c>
+      <c r="D166">
+        <v>31.9</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>885000</v>
+      </c>
+      <c r="C167">
+        <v>46</v>
+      </c>
+      <c r="D167">
+        <v>32.1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>890000</v>
+      </c>
+      <c r="C168">
+        <v>46</v>
+      </c>
+      <c r="D168">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>895000</v>
+      </c>
+      <c r="C169">
+        <v>46</v>
+      </c>
+      <c r="D169">
+        <v>32.5</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>900000</v>
+      </c>
+      <c r="C170">
+        <v>46</v>
+      </c>
+      <c r="D170">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>905000</v>
+      </c>
+      <c r="C171">
+        <v>46</v>
+      </c>
+      <c r="D171">
+        <v>32.9</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>910000</v>
+      </c>
+      <c r="C172">
+        <v>46</v>
+      </c>
+      <c r="D172">
+        <v>33.1</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>915000</v>
+      </c>
+      <c r="C173">
+        <v>46</v>
+      </c>
+      <c r="D173">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>920000</v>
+      </c>
+      <c r="C174">
+        <v>46</v>
+      </c>
+      <c r="D174">
+        <v>33.5</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>925000</v>
+      </c>
+      <c r="C175">
+        <v>46</v>
+      </c>
+      <c r="D175">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>930000</v>
+      </c>
+      <c r="C176">
+        <v>46</v>
+      </c>
+      <c r="D176">
+        <v>33.9</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>935000</v>
+      </c>
+      <c r="C177">
+        <v>46</v>
+      </c>
+      <c r="D177">
+        <v>34.1</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>940000</v>
+      </c>
+      <c r="C178">
+        <v>46</v>
+      </c>
+      <c r="D178">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>945000</v>
+      </c>
+      <c r="C179">
+        <v>46</v>
+      </c>
+      <c r="D179">
+        <v>34.5</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>950000</v>
+      </c>
+      <c r="C180">
+        <v>46</v>
+      </c>
+      <c r="D180">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>955000</v>
+      </c>
+      <c r="C181">
+        <v>46</v>
+      </c>
+      <c r="D181">
+        <v>34.9</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>960000</v>
+      </c>
+      <c r="C182">
+        <v>46</v>
+      </c>
+      <c r="D182">
+        <v>35.1</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>965000</v>
+      </c>
+      <c r="C183">
+        <v>46</v>
+      </c>
+      <c r="D183">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>970000</v>
+      </c>
+      <c r="C184">
+        <v>46</v>
+      </c>
+      <c r="D184">
+        <v>35.5</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>975000</v>
+      </c>
+      <c r="C185">
+        <v>46</v>
+      </c>
+      <c r="D185">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>980000</v>
+      </c>
+      <c r="C186">
+        <v>46</v>
+      </c>
+      <c r="D186">
+        <v>35.9</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>985000</v>
+      </c>
+      <c r="C187">
+        <v>46</v>
+      </c>
+      <c r="D187">
+        <v>36.1</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>990000</v>
+      </c>
+      <c r="C188">
+        <v>46</v>
+      </c>
+      <c r="D188">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>995000</v>
+      </c>
+      <c r="C189">
+        <v>46</v>
+      </c>
+      <c r="D189">
+        <v>36.5</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>1000000</v>
+      </c>
+      <c r="C190">
+        <v>46</v>
+      </c>
+      <c r="D190">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC754D0-32EA-4552-902D-266A06A3258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64669D8-F9CA-4563-9A95-8C8FFAC9B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8836,6 +8836,886 @@
         <v>0</v>
       </c>
     </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>1005000</v>
+      </c>
+      <c r="C191">
+        <v>46</v>
+      </c>
+      <c r="D191">
+        <v>36.9</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>1010000</v>
+      </c>
+      <c r="C192">
+        <v>46</v>
+      </c>
+      <c r="D192">
+        <v>37.1</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>1015000</v>
+      </c>
+      <c r="C193">
+        <v>46</v>
+      </c>
+      <c r="D193">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>1020000</v>
+      </c>
+      <c r="C194">
+        <v>46</v>
+      </c>
+      <c r="D194">
+        <v>37.5</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>1025000</v>
+      </c>
+      <c r="C195">
+        <v>46</v>
+      </c>
+      <c r="D195">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>1030000</v>
+      </c>
+      <c r="C196">
+        <v>46</v>
+      </c>
+      <c r="D196">
+        <v>37.9</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>1035000</v>
+      </c>
+      <c r="C197">
+        <v>46</v>
+      </c>
+      <c r="D197">
+        <v>38.1</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>1040000</v>
+      </c>
+      <c r="C198">
+        <v>46</v>
+      </c>
+      <c r="D198">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>1045000</v>
+      </c>
+      <c r="C199">
+        <v>46</v>
+      </c>
+      <c r="D199">
+        <v>38.5</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>1050000</v>
+      </c>
+      <c r="C200">
+        <v>46</v>
+      </c>
+      <c r="D200">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>1055000</v>
+      </c>
+      <c r="C201">
+        <v>46</v>
+      </c>
+      <c r="D201">
+        <v>38.9</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>1060000</v>
+      </c>
+      <c r="C202">
+        <v>46</v>
+      </c>
+      <c r="D202">
+        <v>39.100000000000101</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>1065000</v>
+      </c>
+      <c r="C203">
+        <v>46</v>
+      </c>
+      <c r="D203">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>1070000</v>
+      </c>
+      <c r="C204">
+        <v>46</v>
+      </c>
+      <c r="D204">
+        <v>39.5</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>1075000</v>
+      </c>
+      <c r="C205">
+        <v>46</v>
+      </c>
+      <c r="D205">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>1080000</v>
+      </c>
+      <c r="C206">
+        <v>46</v>
+      </c>
+      <c r="D206">
+        <v>39.900000000000098</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>1085000</v>
+      </c>
+      <c r="C207">
+        <v>46</v>
+      </c>
+      <c r="D207">
+        <v>40.100000000000101</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>1090000</v>
+      </c>
+      <c r="C208">
+        <v>46</v>
+      </c>
+      <c r="D208">
+        <v>40.300000000000097</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>1095000</v>
+      </c>
+      <c r="C209">
+        <v>46</v>
+      </c>
+      <c r="D209">
+        <v>40.500000000000099</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>1100000</v>
+      </c>
+      <c r="C210">
+        <v>46</v>
+      </c>
+      <c r="D210">
+        <v>40.700000000000102</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64669D8-F9CA-4563-9A95-8C8FFAC9B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE4B094-A006-4789-A121-907DA76B7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:N290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9716,6 +9716,3526 @@
         <v>0</v>
       </c>
     </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>1105000</v>
+      </c>
+      <c r="C211">
+        <v>46</v>
+      </c>
+      <c r="D211">
+        <v>40.900000000000603</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>1110000</v>
+      </c>
+      <c r="C212">
+        <v>46</v>
+      </c>
+      <c r="D212">
+        <v>41.100000000000698</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>1115000</v>
+      </c>
+      <c r="C213">
+        <v>46</v>
+      </c>
+      <c r="D213">
+        <v>41.3000000000008</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>1120000</v>
+      </c>
+      <c r="C214">
+        <v>46</v>
+      </c>
+      <c r="D214">
+        <v>41.500000000000902</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>1125000</v>
+      </c>
+      <c r="C215">
+        <v>46</v>
+      </c>
+      <c r="D215">
+        <v>41.700000000000998</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>1130000</v>
+      </c>
+      <c r="C216">
+        <v>46</v>
+      </c>
+      <c r="D216">
+        <v>41.9000000000011</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>1135000</v>
+      </c>
+      <c r="C217">
+        <v>46</v>
+      </c>
+      <c r="D217">
+        <v>42.100000000001103</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>1140000</v>
+      </c>
+      <c r="C218">
+        <v>46</v>
+      </c>
+      <c r="D218">
+        <v>42.300000000001198</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>1145000</v>
+      </c>
+      <c r="C219">
+        <v>46</v>
+      </c>
+      <c r="D219">
+        <v>42.5000000000013</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>1150000</v>
+      </c>
+      <c r="C220">
+        <v>46</v>
+      </c>
+      <c r="D220">
+        <v>42.700000000001403</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>1155000</v>
+      </c>
+      <c r="C221">
+        <v>46</v>
+      </c>
+      <c r="D221">
+        <v>42.900000000001498</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>1160000</v>
+      </c>
+      <c r="C222">
+        <v>46</v>
+      </c>
+      <c r="D222">
+        <v>43.1000000000016</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>1165000</v>
+      </c>
+      <c r="C223">
+        <v>46</v>
+      </c>
+      <c r="D223">
+        <v>43.300000000001702</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>1170000</v>
+      </c>
+      <c r="C224">
+        <v>46</v>
+      </c>
+      <c r="D224">
+        <v>43.500000000001798</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>1175000</v>
+      </c>
+      <c r="C225">
+        <v>46</v>
+      </c>
+      <c r="D225">
+        <v>43.7000000000019</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>1180000</v>
+      </c>
+      <c r="C226">
+        <v>46</v>
+      </c>
+      <c r="D226">
+        <v>43.900000000002002</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>1185000</v>
+      </c>
+      <c r="C227">
+        <v>46</v>
+      </c>
+      <c r="D227">
+        <v>44.100000000002098</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>1190000</v>
+      </c>
+      <c r="C228">
+        <v>46</v>
+      </c>
+      <c r="D228">
+        <v>44.3000000000022</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>1195000</v>
+      </c>
+      <c r="C229">
+        <v>46</v>
+      </c>
+      <c r="D229">
+        <v>44.500000000002302</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>1200000</v>
+      </c>
+      <c r="C230">
+        <v>46</v>
+      </c>
+      <c r="D230">
+        <v>44.700000000002397</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>1205000</v>
+      </c>
+      <c r="C231">
+        <v>46</v>
+      </c>
+      <c r="D231">
+        <v>44.9000000000025</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>1210000</v>
+      </c>
+      <c r="C232">
+        <v>46</v>
+      </c>
+      <c r="D232">
+        <v>45.100000000002602</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>1215000</v>
+      </c>
+      <c r="C233">
+        <v>46</v>
+      </c>
+      <c r="D233">
+        <v>45.300000000002697</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>1220000</v>
+      </c>
+      <c r="C234">
+        <v>46</v>
+      </c>
+      <c r="D234">
+        <v>45.5000000000028</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>1225000</v>
+      </c>
+      <c r="C235">
+        <v>46</v>
+      </c>
+      <c r="D235">
+        <v>45.700000000002902</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>1230000</v>
+      </c>
+      <c r="C236">
+        <v>46</v>
+      </c>
+      <c r="D236">
+        <v>45.900000000002997</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>1235000</v>
+      </c>
+      <c r="C237">
+        <v>46</v>
+      </c>
+      <c r="D237">
+        <v>46.100000000003</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>1240000</v>
+      </c>
+      <c r="C238">
+        <v>46</v>
+      </c>
+      <c r="D238">
+        <v>46.300000000003102</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>1245000</v>
+      </c>
+      <c r="C239">
+        <v>46</v>
+      </c>
+      <c r="D239">
+        <v>46.500000000003197</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>1250000</v>
+      </c>
+      <c r="C240">
+        <v>46</v>
+      </c>
+      <c r="D240">
+        <v>46.7000000000033</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>1255000</v>
+      </c>
+      <c r="C241">
+        <v>46</v>
+      </c>
+      <c r="D241">
+        <v>46.900000000003402</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>1260000</v>
+      </c>
+      <c r="C242">
+        <v>46</v>
+      </c>
+      <c r="D242">
+        <v>47.100000000003497</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>1265000</v>
+      </c>
+      <c r="C243">
+        <v>46</v>
+      </c>
+      <c r="D243">
+        <v>47.3000000000036</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>1270000</v>
+      </c>
+      <c r="C244">
+        <v>46</v>
+      </c>
+      <c r="D244">
+        <v>47.500000000003702</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>1275000</v>
+      </c>
+      <c r="C245">
+        <v>46</v>
+      </c>
+      <c r="D245">
+        <v>47.700000000003797</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>1280000</v>
+      </c>
+      <c r="C246">
+        <v>46</v>
+      </c>
+      <c r="D246">
+        <v>47.900000000003899</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>1285000</v>
+      </c>
+      <c r="C247">
+        <v>46</v>
+      </c>
+      <c r="D247">
+        <v>48.100000000004002</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>1290000</v>
+      </c>
+      <c r="C248">
+        <v>46</v>
+      </c>
+      <c r="D248">
+        <v>48.300000000004097</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>1295000</v>
+      </c>
+      <c r="C249">
+        <v>46</v>
+      </c>
+      <c r="D249">
+        <v>48.500000000004199</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>1300000</v>
+      </c>
+      <c r="C250">
+        <v>46</v>
+      </c>
+      <c r="D250">
+        <v>48.700000000004302</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>1305000</v>
+      </c>
+      <c r="C251">
+        <v>46</v>
+      </c>
+      <c r="D251">
+        <v>48.900000000004397</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>1310000</v>
+      </c>
+      <c r="C252">
+        <v>46</v>
+      </c>
+      <c r="D252">
+        <v>49.100000000004499</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>1315000</v>
+      </c>
+      <c r="C253">
+        <v>46</v>
+      </c>
+      <c r="D253">
+        <v>49.300000000004601</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>1320000</v>
+      </c>
+      <c r="C254">
+        <v>46</v>
+      </c>
+      <c r="D254">
+        <v>49.500000000004697</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>1325000</v>
+      </c>
+      <c r="C255">
+        <v>46</v>
+      </c>
+      <c r="D255">
+        <v>49.700000000004799</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>1330000</v>
+      </c>
+      <c r="C256">
+        <v>46</v>
+      </c>
+      <c r="D256">
+        <v>49.900000000004901</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>1335000</v>
+      </c>
+      <c r="C257">
+        <v>46</v>
+      </c>
+      <c r="D257">
+        <v>50.100000000004997</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>1340000</v>
+      </c>
+      <c r="C258">
+        <v>46</v>
+      </c>
+      <c r="D258">
+        <v>50.300000000004999</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>1345000</v>
+      </c>
+      <c r="C259">
+        <v>46</v>
+      </c>
+      <c r="D259">
+        <v>50.500000000005102</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>1350000</v>
+      </c>
+      <c r="C260">
+        <v>46</v>
+      </c>
+      <c r="D260">
+        <v>50.700000000005197</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>1355000</v>
+      </c>
+      <c r="C261">
+        <v>46</v>
+      </c>
+      <c r="D261">
+        <v>50.900000000005299</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>1360000</v>
+      </c>
+      <c r="C262">
+        <v>46</v>
+      </c>
+      <c r="D262">
+        <v>51.100000000005402</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>1365000</v>
+      </c>
+      <c r="C263">
+        <v>46</v>
+      </c>
+      <c r="D263">
+        <v>51.300000000005497</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>1370000</v>
+      </c>
+      <c r="C264">
+        <v>46</v>
+      </c>
+      <c r="D264">
+        <v>51.500000000005599</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>1375000</v>
+      </c>
+      <c r="C265">
+        <v>46</v>
+      </c>
+      <c r="D265">
+        <v>51.700000000005701</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>1380000</v>
+      </c>
+      <c r="C266">
+        <v>46</v>
+      </c>
+      <c r="D266">
+        <v>51.900000000005797</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>1385000</v>
+      </c>
+      <c r="C267">
+        <v>46</v>
+      </c>
+      <c r="D267">
+        <v>52.100000000005899</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>1390000</v>
+      </c>
+      <c r="C268">
+        <v>46</v>
+      </c>
+      <c r="D268">
+        <v>52.300000000006001</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>1395000</v>
+      </c>
+      <c r="C269">
+        <v>46</v>
+      </c>
+      <c r="D269">
+        <v>52.500000000006096</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>1400000</v>
+      </c>
+      <c r="C270">
+        <v>46</v>
+      </c>
+      <c r="D270">
+        <v>52.700000000006199</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>1405000</v>
+      </c>
+      <c r="C271">
+        <v>46</v>
+      </c>
+      <c r="D271">
+        <v>52.900000000006301</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>1410000</v>
+      </c>
+      <c r="C272">
+        <v>46</v>
+      </c>
+      <c r="D272">
+        <v>53.100000000006403</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>1415000</v>
+      </c>
+      <c r="C273">
+        <v>46</v>
+      </c>
+      <c r="D273">
+        <v>53.300000000006499</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>1420000</v>
+      </c>
+      <c r="C274">
+        <v>46</v>
+      </c>
+      <c r="D274">
+        <v>53.500000000006601</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>1425000</v>
+      </c>
+      <c r="C275">
+        <v>46</v>
+      </c>
+      <c r="D275">
+        <v>53.700000000006703</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>1430000</v>
+      </c>
+      <c r="C276">
+        <v>46</v>
+      </c>
+      <c r="D276">
+        <v>53.900000000006798</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>1435000</v>
+      </c>
+      <c r="C277">
+        <v>46</v>
+      </c>
+      <c r="D277">
+        <v>54.100000000006901</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>1440000</v>
+      </c>
+      <c r="C278">
+        <v>46</v>
+      </c>
+      <c r="D278">
+        <v>54.300000000007003</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>1445000</v>
+      </c>
+      <c r="C279">
+        <v>46</v>
+      </c>
+      <c r="D279">
+        <v>54.500000000006999</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>1450000</v>
+      </c>
+      <c r="C280">
+        <v>46</v>
+      </c>
+      <c r="D280">
+        <v>54.700000000007101</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>1455000</v>
+      </c>
+      <c r="C281">
+        <v>46</v>
+      </c>
+      <c r="D281">
+        <v>54.900000000007203</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>1460000</v>
+      </c>
+      <c r="C282">
+        <v>46</v>
+      </c>
+      <c r="D282">
+        <v>55.100000000007299</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>1465000</v>
+      </c>
+      <c r="C283">
+        <v>46</v>
+      </c>
+      <c r="D283">
+        <v>55.300000000007401</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>1470000</v>
+      </c>
+      <c r="C284">
+        <v>46</v>
+      </c>
+      <c r="D284">
+        <v>55.500000000007503</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>1475000</v>
+      </c>
+      <c r="C285">
+        <v>46</v>
+      </c>
+      <c r="D285">
+        <v>55.700000000007599</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>1480000</v>
+      </c>
+      <c r="C286">
+        <v>46</v>
+      </c>
+      <c r="D286">
+        <v>55.900000000007701</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>1485000</v>
+      </c>
+      <c r="C287">
+        <v>46</v>
+      </c>
+      <c r="D287">
+        <v>56.100000000007803</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>1490000</v>
+      </c>
+      <c r="C288">
+        <v>46</v>
+      </c>
+      <c r="D288">
+        <v>56.300000000007898</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>1495000</v>
+      </c>
+      <c r="C289">
+        <v>46</v>
+      </c>
+      <c r="D289">
+        <v>56.500000000008001</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>1500000</v>
+      </c>
+      <c r="C290">
+        <v>46</v>
+      </c>
+      <c r="D290">
+        <v>56.700000000008103</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/BlackWolfRing.xlsx
+++ b/Assets/06.Table/BlackWolfRing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE4B094-A006-4789-A121-907DA76B7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A0B70-153E-4F9C-934E-B68CD99F4398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -166,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:N350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B283" sqref="B283"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13236,6 +13236,2646 @@
         <v>0</v>
       </c>
     </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>1505000</v>
+      </c>
+      <c r="C291">
+        <v>46</v>
+      </c>
+      <c r="D291">
+        <v>56.900000000008198</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>1510000</v>
+      </c>
+      <c r="C292">
+        <v>46</v>
+      </c>
+      <c r="D292">
+        <v>57.100000000008301</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>1515000</v>
+      </c>
+      <c r="C293">
+        <v>46</v>
+      </c>
+      <c r="D293">
+        <v>57.300000000008303</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>1520000</v>
+      </c>
+      <c r="C294">
+        <v>46</v>
+      </c>
+      <c r="D294">
+        <v>57.500000000008399</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>1525000</v>
+      </c>
+      <c r="C295">
+        <v>46</v>
+      </c>
+      <c r="D295">
+        <v>57.700000000008501</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>1530000</v>
+      </c>
+      <c r="C296">
+        <v>46</v>
+      </c>
+      <c r="D296">
+        <v>57.900000000008603</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>1535000</v>
+      </c>
+      <c r="C297">
+        <v>46</v>
+      </c>
+      <c r="D297">
+        <v>58.100000000008698</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>1540000</v>
+      </c>
+      <c r="C298">
+        <v>46</v>
+      </c>
+      <c r="D298">
+        <v>58.300000000008801</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>1545000</v>
+      </c>
+      <c r="C299">
+        <v>46</v>
+      </c>
+      <c r="D299">
+        <v>58.500000000008903</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>1550000</v>
+      </c>
+      <c r="C300">
+        <v>46</v>
+      </c>
+      <c r="D300">
+        <v>58.700000000008998</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>1555000</v>
+      </c>
+      <c r="C301">
+        <v>46</v>
+      </c>
+      <c r="D301">
+        <v>58.900000000009101</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>1560000</v>
+      </c>
+      <c r="C302">
+        <v>46</v>
+      </c>
+      <c r="D302">
+        <v>59.100000000009203</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>1565000</v>
+      </c>
+      <c r="C303">
+        <v>46</v>
+      </c>
+      <c r="D303">
+        <v>59.300000000009298</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>1570000</v>
+      </c>
+      <c r="C304">
+        <v>46</v>
+      </c>
+      <c r="D304">
+        <v>59.5000000000094</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>1575000</v>
+      </c>
+      <c r="C305">
+        <v>46</v>
+      </c>
+      <c r="D305">
+        <v>59.700000000009503</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>1580000</v>
+      </c>
+      <c r="C306">
+        <v>46</v>
+      </c>
+      <c r="D306">
+        <v>59.900000000009598</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>1585000</v>
+      </c>
+      <c r="C307">
+        <v>46</v>
+      </c>
+      <c r="D307">
+        <v>60.1000000000097</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>1590000</v>
+      </c>
+      <c r="C308">
+        <v>46</v>
+      </c>
+      <c r="D308">
+        <v>60.300000000009803</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>1595000</v>
+      </c>
+      <c r="C309">
+        <v>46</v>
+      </c>
+      <c r="D309">
+        <v>60.500000000009898</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>1600000</v>
+      </c>
+      <c r="C310">
+        <v>46</v>
+      </c>
+      <c r="D310">
+        <v>60.70000000001</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>1605000</v>
+      </c>
+      <c r="C311">
+        <v>46</v>
+      </c>
+      <c r="D311">
+        <v>60.900000000010102</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>1610000</v>
+      </c>
+      <c r="C312">
+        <v>46</v>
+      </c>
+      <c r="D312">
+        <v>61.100000000010198</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>1615000</v>
+      </c>
+      <c r="C313">
+        <v>46</v>
+      </c>
+      <c r="D313">
+        <v>61.3000000000103</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>1620000</v>
+      </c>
+      <c r="C314">
+        <v>46</v>
+      </c>
+      <c r="D314">
+        <v>61.500000000010303</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>1625000</v>
+      </c>
+      <c r="C315">
+        <v>46</v>
+      </c>
+      <c r="D315">
+        <v>61.700000000010398</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>1630000</v>
+      </c>
+      <c r="C316">
+        <v>46</v>
+      </c>
+      <c r="D316">
+        <v>61.9000000000105</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>1635000</v>
+      </c>
+      <c r="C317">
+        <v>46</v>
+      </c>
+      <c r="D317">
+        <v>62.100000000010603</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>1640000</v>
+      </c>
+      <c r="C318">
+        <v>46</v>
+      </c>
+      <c r="D318">
+        <v>62.300000000010698</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>1645000</v>
+      </c>
+      <c r="C319">
+        <v>46</v>
+      </c>
+      <c r="D319">
+        <v>62.5000000000108</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>1650000</v>
+      </c>
+      <c r="C320">
+        <v>46</v>
+      </c>
+      <c r="D320">
+        <v>62.700000000010903</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+      <c r="L320">
+        <v>0</v>
+      </c>
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>1655000</v>
+      </c>
+      <c r="C321">
+        <v>46</v>
+      </c>
+      <c r="D321">
+        <v>62.900000000010998</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>1660000</v>
+      </c>
+      <c r="C322">
+        <v>46</v>
+      </c>
+      <c r="D322">
+        <v>63.1000000000111</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>1665000</v>
+      </c>
+      <c r="C323">
+        <v>46</v>
+      </c>
+      <c r="D323">
+        <v>63.300000000011202</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>1670000</v>
+      </c>
+      <c r="C324">
+        <v>46</v>
+      </c>
+      <c r="D324">
+        <v>63.500000000011298</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>1675000</v>
+      </c>
+      <c r="C325">
+        <v>46</v>
+      </c>
+      <c r="D325">
+        <v>63.7000000000114</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>1680000</v>
+      </c>
+      <c r="C326">
+        <v>46</v>
+      </c>
+      <c r="D326">
+        <v>63.900000000011502</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>1685000</v>
+      </c>
+      <c r="C327">
+        <v>46</v>
+      </c>
+      <c r="D327">
+        <v>64.100000000011605</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>1690000</v>
+      </c>
+      <c r="C328">
+        <v>46</v>
+      </c>
+      <c r="D328">
+        <v>64.300000000011707</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>1695000</v>
+      </c>
+      <c r="C329">
+        <v>46</v>
+      </c>
+      <c r="D329">
+        <v>64.500000000011795</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>1700000</v>
+      </c>
+      <c r="C330">
+        <v>46</v>
+      </c>
+      <c r="D330">
+        <v>64.700000000011897</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>1705000</v>
+      </c>
+      <c r="C331">
+        <v>46</v>
+      </c>
+      <c r="D331">
+        <v>64.900000000012</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>1710000</v>
+      </c>
+      <c r="C332">
+        <v>46</v>
+      </c>
+      <c r="D332">
+        <v>65.100000000012102</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>1715000</v>
+      </c>
+      <c r="C333">
+        <v>46</v>
+      </c>
+      <c r="D333">
+        <v>65.300000000012204</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>1720000</v>
+      </c>
+      <c r="C334">
+        <v>46</v>
+      </c>
+      <c r="D334">
+        <v>65.500000000012193</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>1725000</v>
+      </c>
+      <c r="C335">
+        <v>46</v>
+      </c>
+      <c r="D335">
+        <v>65.700000000012295</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335">
+        <v>0</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>1730000</v>
+      </c>
+      <c r="C336">
+        <v>46</v>
+      </c>
+      <c r="D336">
+        <v>65.900000000012398</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>1735000</v>
+      </c>
+      <c r="C337">
+        <v>46</v>
+      </c>
+      <c r="D337">
+        <v>66.1000000000125</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>1740000</v>
+      </c>
+      <c r="C338">
+        <v>46</v>
+      </c>
+      <c r="D338">
+        <v>66.300000000012602</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>1745000</v>
+      </c>
+      <c r="C339">
+        <v>46</v>
+      </c>
+      <c r="D339">
+        <v>66.500000000012705</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>1750000</v>
+      </c>
+      <c r="C340">
+        <v>46</v>
+      </c>
+      <c r="D340">
+        <v>66.700000000012807</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>1755000</v>
+      </c>
+      <c r="C341">
+        <v>46</v>
+      </c>
+      <c r="D341">
+        <v>66.900000000012895</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>1760000</v>
+      </c>
+      <c r="C342">
+        <v>46</v>
+      </c>
+      <c r="D342">
+        <v>67.100000000012997</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>1765000</v>
+      </c>
+      <c r="C343">
+        <v>46</v>
+      </c>
+      <c r="D343">
+        <v>67.3000000000131</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>1770000</v>
+      </c>
+      <c r="C344">
+        <v>46</v>
+      </c>
+      <c r="D344">
+        <v>67.500000000013202</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>1775000</v>
+      </c>
+      <c r="C345">
+        <v>46</v>
+      </c>
+      <c r="D345">
+        <v>67.700000000013304</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>1780000</v>
+      </c>
+      <c r="C346">
+        <v>46</v>
+      </c>
+      <c r="D346">
+        <v>67.900000000013407</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>1785000</v>
+      </c>
+      <c r="C347">
+        <v>46</v>
+      </c>
+      <c r="D347">
+        <v>68.100000000013495</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>1790000</v>
+      </c>
+      <c r="C348">
+        <v>46</v>
+      </c>
+      <c r="D348">
+        <v>68.300000000013597</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>1795000</v>
+      </c>
+      <c r="C349">
+        <v>46</v>
+      </c>
+      <c r="D349">
+        <v>68.500000000013699</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>1800000</v>
+      </c>
+      <c r="C350">
+        <v>46</v>
+      </c>
+      <c r="D350">
+        <v>68.700000000013802</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
